--- a/konzultace26_2/Katalog opatření_Bidelin_MP.xlsx
+++ b/konzultace26_2/Katalog opatření_Bidelin_MP.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prokopova.m\Data\RegAdapt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upolomouc-my.sharepoint.com/personal/petrad04_upol_cz/Documents/Diplomka/diplomka/diplomka/konzultace26_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6AD85C-5631-48AE-9145-EAF48165C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="19200" windowHeight="9220" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cataloque of measures - urban" sheetId="1" r:id="rId1"/>
     <sheet name="Cataloque of meas. - landscape" sheetId="2" r:id="rId2"/>
     <sheet name="Katalog - landscape" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1335,135 +1346,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1475,12 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1493,12 +1369,210 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1508,89 +1582,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1885,22 +1896,22 @@
       <selection activeCell="A19" sqref="A19:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="44.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1911,355 +1922,349 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="53"/>
-      <c r="B4" s="48"/>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="53"/>
-      <c r="B5" s="48"/>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="53"/>
-      <c r="B6" s="48"/>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="65"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="53"/>
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="53"/>
-      <c r="B8" s="49"/>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="88.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="53"/>
-      <c r="B9" s="49"/>
+    <row r="9" spans="1:3" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="53"/>
-      <c r="B10" s="48" t="s">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="53"/>
-      <c r="B11" s="48"/>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="53"/>
-      <c r="B12" s="48"/>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="48"/>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="48"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="65"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="50"/>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="50"/>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="50"/>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="55"/>
-      <c r="B18" s="51"/>
+    <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="56" t="s">
+    <row r="19" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="57"/>
-      <c r="B20" s="59"/>
+    <row r="20" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="57"/>
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="1:3" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="80" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="57"/>
-      <c r="B22" s="43"/>
+    <row r="22" spans="1:3" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="57"/>
-      <c r="B23" s="43"/>
+    <row r="23" spans="1:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="57"/>
-      <c r="B24" s="43"/>
+    <row r="24" spans="1:3" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="57"/>
-      <c r="B25" s="43"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="69"/>
+      <c r="B26" s="81" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="57"/>
-      <c r="B27" s="44"/>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="57"/>
-      <c r="B28" s="44"/>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="44"/>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
-      <c r="B30" s="44"/>
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="57"/>
-      <c r="B31" s="44"/>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="57"/>
-      <c r="B32" s="44"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="57"/>
-      <c r="B33" s="45" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="57"/>
-      <c r="B34" s="46"/>
+    <row r="34" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="69"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="39"/>
-      <c r="B36" s="36"/>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="76"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="39"/>
-      <c r="B37" s="36"/>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="76"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="40"/>
-      <c r="B38" s="37"/>
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="77"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="103.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="37"/>
+    <row r="39" spans="1:3" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="77"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="37" t="s">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="77"/>
+      <c r="B40" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
-      <c r="B41" s="37"/>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="77"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="37"/>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="77"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
-      <c r="B43" s="37"/>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="77"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="37"/>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="77"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="37"/>
+    <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="77"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="37" t="s">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="77"/>
+      <c r="B46" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
+    <row r="47" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="78"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="12" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="A35:A47"/>
@@ -2267,6 +2272,12 @@
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="B26:B32"/>
     <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2277,32 +2288,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="39.54296875" customWidth="1"/>
-    <col min="5" max="5" width="42.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2319,11 +2330,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -2334,9 +2345,9 @@
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="68"/>
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="23"/>
       <c r="D4" s="21" t="s">
         <v>68</v>
@@ -2345,9 +2356,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="69"/>
+    <row r="5" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="23"/>
       <c r="D5" s="5" t="s">
         <v>26</v>
@@ -2356,51 +2367,51 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75"/>
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
+      <c r="B6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="99" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="65"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="63" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="100"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="66"/>
-    </row>
-    <row r="10" spans="1:5" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="75"/>
-      <c r="B10" s="73" t="s">
+      <c r="E8" s="100"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="101"/>
+    </row>
+    <row r="10" spans="1:5" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="92"/>
+      <c r="B10" s="90" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -2413,9 +2424,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="75"/>
-      <c r="B11" s="68"/>
+    <row r="11" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="92"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="5" t="s">
         <v>82</v>
       </c>
@@ -2426,11 +2437,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2443,9 +2454,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
-      <c r="B13" s="36"/>
+    <row r="13" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
@@ -2456,9 +2467,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
-      <c r="B14" s="36"/>
+    <row r="14" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="11" t="s">
         <v>76</v>
       </c>
@@ -2469,9 +2480,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
-      <c r="B15" s="37"/>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="22"/>
       <c r="D15" s="11" t="s">
         <v>22</v>
@@ -2480,9 +2491,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
+      <c r="B16" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2495,9 +2506,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="37"/>
+    <row r="17" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="22"/>
       <c r="D17" s="11" t="s">
         <v>39</v>
@@ -2506,27 +2517,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
-      <c r="B18" s="37"/>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="89"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="22"/>
       <c r="D18" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
-      <c r="B19" s="37"/>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="89"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="22"/>
       <c r="D19" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
-      <c r="B20" s="76" t="s">
+    <row r="20" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
+      <c r="B20" s="93" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -2539,16 +2550,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
-      <c r="B21" s="77"/>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="89"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="22"/>
       <c r="D21" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="129.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>84</v>
       </c>
@@ -2565,13 +2576,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E9"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
@@ -2580,11 +2596,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2597,68 +2608,68 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="39.54296875" customWidth="1"/>
-    <col min="5" max="5" width="42.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91" t="s">
+    <row r="3" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="78"/>
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="112"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="31" t="s">
         <v>125</v>
       </c>
@@ -2666,231 +2677,231 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="80.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="92"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="90" t="s">
+    <row r="5" spans="1:5" ht="80.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45" t="s">
         <v>116</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
-      <c r="B6" s="97" t="s">
+    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="112"/>
+      <c r="B6" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
-      <c r="B7" s="99"/>
+    <row r="7" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="112"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="49" t="s">
+    <row r="8" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="57" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="92"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="123"/>
-    </row>
-    <row r="10" spans="1:5" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
-      <c r="B10" s="119" t="s">
+    <row r="9" spans="1:5" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="90" t="s">
+    <row r="11" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="113"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="45" t="s">
         <v>124</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="112" t="s">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="47" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="102"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="79" t="s">
+    <row r="13" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="103"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="36" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="103"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="79" t="s">
+    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="36" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="103"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109" t="s">
+    <row r="15" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="104"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104" t="s">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="47" t="s">
         <v>131</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="103"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="79" t="s">
+    <row r="17" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36" t="s">
         <v>132</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="103"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="79" t="s">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="85"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="103"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109" t="s">
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="104"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="111"/>
-    </row>
-    <row r="20" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="103"/>
-      <c r="B20" s="104" t="s">
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="113"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109" t="s">
+    <row r="21" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="105"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="111"/>
-    </row>
-    <row r="22" spans="1:5" ht="129.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="117" t="s">
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" ht="129.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="54" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>139</v>
       </c>
